--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="93">
   <si>
     <t xml:space="preserve">FX Forwards</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Futures</t>
   </si>
   <si>
-    <t xml:space="preserve">Collaterlaised Debt Obligations (CDOs)</t>
+    <t xml:space="preserve">Collateralised Debt Obligations (CDOs)</t>
   </si>
   <si>
     <t xml:space="preserve">Equities</t>
@@ -92,12 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed Term Deposit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collateralised Debt Obligations (CDOs)</t>
   </si>
   <si>
     <t xml:space="preserve">risk</t>
@@ -326,11 +320,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -346,6 +341,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -395,7 +395,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -416,21 +416,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A6:A15 B1"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="A8 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="34.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
@@ -467,9 +467,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -504,24 +505,24 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A6:A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="A8 A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -684,7 +685,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>100</v>
@@ -760,40 +761,40 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="E9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="L9" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,7 +838,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -853,22 +854,22 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A6:A15"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A8 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -917,7 +918,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>100</v>
@@ -1031,40 +1032,40 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,7 +1109,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1124,22 +1125,22 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A6:A15"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="A8 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1302,40 +1303,40 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1379,7 +1380,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1394,22 +1395,22 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A6:A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1740,34 +1741,34 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="E13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="J13" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,7 +1806,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1821,7 +1822,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A6:A15 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A8 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1866,7 +1867,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1881,14 +1882,14 @@
   </sheetPr>
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="A6:A15 C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A56" activeCellId="1" sqref="A8 A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
@@ -2047,7 +2048,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>27</v>
@@ -2335,7 +2336,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>59.3</v>
@@ -2616,7 +2617,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2632,7 +2633,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A6:A15 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A8 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2644,65 +2645,65 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2718,7 +2719,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="A6:A15 B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="A8 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2730,174 +2731,174 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2912,8 +2913,8 @@
   </sheetPr>
   <dimension ref="A1:J280"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A81" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="1" sqref="A6:A15 A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A155" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A170" activeCellId="1" sqref="A8 A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2921,14 +2922,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2944,31 +2945,31 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3002,12 +3003,12 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3036,7 +3037,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3065,7 +3066,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>100</v>
@@ -3094,7 +3095,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>100</v>
@@ -3123,7 +3124,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3152,7 +3153,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>20</v>
@@ -3181,7 +3182,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>100</v>
@@ -3210,7 +3211,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>100</v>
@@ -3239,7 +3240,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>10</v>
@@ -3268,7 +3269,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>100</v>
@@ -3297,7 +3298,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>100</v>
@@ -3326,7 +3327,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -3355,7 +3356,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -3384,7 +3385,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -3413,7 +3414,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -3442,7 +3443,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -3471,7 +3472,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>100</v>
@@ -3500,7 +3501,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -3529,7 +3530,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -3558,7 +3559,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>100</v>
@@ -3587,7 +3588,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>100</v>
@@ -3616,7 +3617,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>100</v>
@@ -3655,31 +3656,31 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="F31" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="G31" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="H31" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="I31" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="J31" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3713,12 +3714,12 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>20</v>
@@ -3747,7 +3748,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -3776,7 +3777,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -3805,7 +3806,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -3834,7 +3835,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>100</v>
@@ -3863,7 +3864,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>20</v>
@@ -3892,7 +3893,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -3921,7 +3922,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -3950,7 +3951,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>10</v>
@@ -3979,7 +3980,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -4008,7 +4009,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -4037,7 +4038,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>100</v>
@@ -4066,7 +4067,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>20</v>
@@ -4095,7 +4096,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>100</v>
@@ -4124,7 +4125,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>81.2</v>
@@ -4153,7 +4154,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -4182,7 +4183,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
@@ -4211,7 +4212,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0</v>
@@ -4240,7 +4241,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>0</v>
@@ -4269,7 +4270,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>100</v>
@@ -4298,7 +4299,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>0</v>
@@ -4327,7 +4328,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>100</v>
@@ -4366,31 +4367,31 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="F59" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="G59" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="H59" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="I59" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H59" s="0" t="s">
+      <c r="J59" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4424,12 +4425,12 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>0</v>
@@ -4458,7 +4459,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>0</v>
@@ -4487,7 +4488,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>0</v>
@@ -4516,7 +4517,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>0</v>
@@ -4545,7 +4546,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>100</v>
@@ -4574,7 +4575,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>20</v>
@@ -4603,7 +4604,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>0</v>
@@ -4632,7 +4633,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>0</v>
@@ -4661,7 +4662,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>0</v>
@@ -4690,7 +4691,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>0</v>
@@ -4719,7 +4720,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>0</v>
@@ -4748,7 +4749,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>100</v>
@@ -4777,7 +4778,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>0</v>
@@ -4806,7 +4807,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>0</v>
@@ -4835,7 +4836,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>0</v>
@@ -4864,7 +4865,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>100</v>
@@ -4893,7 +4894,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>0</v>
@@ -4922,7 +4923,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>0</v>
@@ -4951,7 +4952,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>0</v>
@@ -4980,7 +4981,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>100</v>
@@ -5009,7 +5010,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>0</v>
@@ -5038,7 +5039,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>100</v>
@@ -5077,31 +5078,31 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C87" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="F87" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="G87" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F87" s="0" t="s">
+      <c r="H87" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G87" s="0" t="s">
+      <c r="I87" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H87" s="0" t="s">
+      <c r="J87" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J87" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5135,12 +5136,12 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>0</v>
@@ -5169,7 +5170,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>0</v>
@@ -5198,7 +5199,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>100</v>
@@ -5227,7 +5228,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>100</v>
@@ -5256,7 +5257,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>0</v>
@@ -5285,7 +5286,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>20</v>
@@ -5314,7 +5315,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>100</v>
@@ -5343,7 +5344,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>0</v>
@@ -5372,7 +5373,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>10</v>
@@ -5401,7 +5402,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>100</v>
@@ -5430,7 +5431,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>100</v>
@@ -5459,7 +5460,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>0</v>
@@ -5488,7 +5489,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>20</v>
@@ -5517,7 +5518,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>0</v>
@@ -5546,7 +5547,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>0</v>
@@ -5575,7 +5576,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>100</v>
@@ -5604,7 +5605,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>0</v>
@@ -5633,7 +5634,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>20</v>
@@ -5662,7 +5663,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>0</v>
@@ -5691,7 +5692,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>100</v>
@@ -5720,7 +5721,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>0</v>
@@ -5749,7 +5750,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>100</v>
@@ -5788,31 +5789,31 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C115" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E115" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="F115" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="G115" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F115" s="0" t="s">
+      <c r="H115" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G115" s="0" t="s">
+      <c r="I115" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H115" s="0" t="s">
+      <c r="J115" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="I115" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J115" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5846,12 +5847,12 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>0</v>
@@ -5880,7 +5881,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>0</v>
@@ -5909,7 +5910,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>100</v>
@@ -5938,7 +5939,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>100</v>
@@ -5967,7 +5968,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>0</v>
@@ -5996,7 +5997,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>20</v>
@@ -6025,7 +6026,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>100</v>
@@ -6054,7 +6055,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>100</v>
@@ -6083,7 +6084,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>10</v>
@@ -6112,7 +6113,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>100</v>
@@ -6141,7 +6142,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>100</v>
@@ -6170,7 +6171,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>0</v>
@@ -6199,7 +6200,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>0</v>
@@ -6228,7 +6229,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>0</v>
@@ -6257,7 +6258,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>0</v>
@@ -6286,7 +6287,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>100</v>
@@ -6315,7 +6316,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>0</v>
@@ -6344,7 +6345,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>0</v>
@@ -6373,7 +6374,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>0</v>
@@ -6402,7 +6403,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>100</v>
@@ -6431,7 +6432,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>0</v>
@@ -6460,7 +6461,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>100</v>
@@ -6499,31 +6500,31 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C143" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E143" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="F143" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E143" s="0" t="s">
+      <c r="G143" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F143" s="0" t="s">
+      <c r="H143" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G143" s="0" t="s">
+      <c r="I143" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H143" s="0" t="s">
+      <c r="J143" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="I143" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J143" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6557,12 +6558,12 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>0</v>
@@ -6591,7 +6592,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>0</v>
@@ -6620,7 +6621,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>100</v>
@@ -6649,7 +6650,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>100</v>
@@ -6678,7 +6679,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>0</v>
@@ -6707,7 +6708,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>20</v>
@@ -6736,7 +6737,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>0</v>
@@ -6765,7 +6766,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>100</v>
@@ -6794,7 +6795,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>0</v>
@@ -6823,7 +6824,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>100</v>
@@ -6852,7 +6853,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>100</v>
@@ -6881,7 +6882,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>0</v>
@@ -6910,7 +6911,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>20</v>
@@ -6939,7 +6940,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>0</v>
@@ -6968,7 +6969,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>0</v>
@@ -6997,7 +6998,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>0</v>
@@ -7026,7 +7027,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>0</v>
@@ -7055,7 +7056,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>20</v>
@@ -7084,7 +7085,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>0</v>
@@ -7113,7 +7114,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>100</v>
@@ -7142,7 +7143,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>100</v>
@@ -7171,7 +7172,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>100</v>
@@ -7205,36 +7206,36 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C171" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E171" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D171" s="0" t="s">
+      <c r="F171" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E171" s="0" t="s">
+      <c r="G171" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F171" s="0" t="s">
+      <c r="H171" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G171" s="0" t="s">
+      <c r="I171" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H171" s="0" t="s">
+      <c r="J171" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="I171" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J171" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7268,12 +7269,12 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>20</v>
@@ -7302,7 +7303,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>10</v>
@@ -7331,7 +7332,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>100</v>
@@ -7360,7 +7361,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>100</v>
@@ -7389,7 +7390,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>0</v>
@@ -7418,7 +7419,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>20</v>
@@ -7447,7 +7448,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>100</v>
@@ -7476,7 +7477,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>100</v>
@@ -7505,7 +7506,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>10</v>
@@ -7534,7 +7535,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>100</v>
@@ -7563,7 +7564,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>100</v>
@@ -7592,7 +7593,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>0</v>
@@ -7621,7 +7622,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>20</v>
@@ -7650,7 +7651,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>0</v>
@@ -7679,7 +7680,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>0</v>
@@ -7708,7 +7709,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>0</v>
@@ -7737,7 +7738,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>0</v>
@@ -7766,7 +7767,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>20</v>
@@ -7795,7 +7796,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>100</v>
@@ -7824,7 +7825,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>100</v>
@@ -7853,7 +7854,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>100</v>
@@ -7882,7 +7883,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>100</v>
@@ -7921,31 +7922,31 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C199" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E199" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D199" s="0" t="s">
+      <c r="F199" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E199" s="0" t="s">
+      <c r="G199" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F199" s="0" t="s">
+      <c r="H199" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G199" s="0" t="s">
+      <c r="I199" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H199" s="0" t="s">
+      <c r="J199" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="I199" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J199" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7979,12 +7980,12 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>0</v>
@@ -8013,7 +8014,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>0</v>
@@ -8042,7 +8043,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>100</v>
@@ -8071,7 +8072,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C206" s="0" t="n">
         <v>100</v>
@@ -8100,7 +8101,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C207" s="0" t="n">
         <v>0</v>
@@ -8129,7 +8130,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>20</v>
@@ -8158,7 +8159,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>100</v>
@@ -8187,7 +8188,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>100</v>
@@ -8216,7 +8217,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>10</v>
@@ -8245,7 +8246,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>100</v>
@@ -8274,7 +8275,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>100</v>
@@ -8303,7 +8304,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>0</v>
@@ -8332,7 +8333,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C215" s="0" t="n">
         <v>20</v>
@@ -8361,7 +8362,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C216" s="0" t="n">
         <v>0</v>
@@ -8390,7 +8391,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C217" s="0" t="n">
         <v>0</v>
@@ -8419,7 +8420,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C218" s="0" t="n">
         <v>0</v>
@@ -8448,7 +8449,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C219" s="0" t="n">
         <v>0</v>
@@ -8477,7 +8478,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C220" s="0" t="n">
         <v>20</v>
@@ -8506,7 +8507,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C221" s="0" t="n">
         <v>0</v>
@@ -8535,7 +8536,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C222" s="0" t="n">
         <v>100</v>
@@ -8564,7 +8565,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C223" s="0" t="n">
         <v>100</v>
@@ -8593,7 +8594,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C224" s="0" t="n">
         <v>100</v>
@@ -8632,31 +8633,31 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C227" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E227" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D227" s="0" t="s">
+      <c r="F227" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E227" s="0" t="s">
+      <c r="G227" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F227" s="0" t="s">
+      <c r="H227" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G227" s="0" t="s">
+      <c r="I227" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H227" s="0" t="s">
+      <c r="J227" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="I227" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J227" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8690,12 +8691,12 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C231" s="0" t="n">
         <v>0</v>
@@ -8724,7 +8725,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C232" s="0" t="n">
         <v>0</v>
@@ -8753,7 +8754,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C233" s="0" t="n">
         <v>100</v>
@@ -8782,7 +8783,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C234" s="0" t="n">
         <v>100</v>
@@ -8811,7 +8812,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C235" s="0" t="n">
         <v>0</v>
@@ -8840,7 +8841,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C236" s="0" t="n">
         <v>20</v>
@@ -8869,7 +8870,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C237" s="0" t="n">
         <v>100</v>
@@ -8898,7 +8899,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C238" s="0" t="n">
         <v>100</v>
@@ -8927,7 +8928,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C239" s="0" t="n">
         <v>10</v>
@@ -8956,7 +8957,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C240" s="0" t="n">
         <v>100</v>
@@ -8985,7 +8986,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C241" s="0" t="n">
         <v>100</v>
@@ -9014,7 +9015,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C242" s="0" t="n">
         <v>0</v>
@@ -9043,7 +9044,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C243" s="0" t="n">
         <v>0</v>
@@ -9072,7 +9073,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C244" s="0" t="n">
         <v>0</v>
@@ -9101,7 +9102,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C245" s="0" t="n">
         <v>0</v>
@@ -9130,7 +9131,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C246" s="0" t="n">
         <v>0</v>
@@ -9159,7 +9160,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C247" s="0" t="n">
         <v>0</v>
@@ -9188,7 +9189,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C248" s="0" t="n">
         <v>20</v>
@@ -9217,7 +9218,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C249" s="0" t="n">
         <v>0</v>
@@ -9246,7 +9247,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C250" s="0" t="n">
         <v>100</v>
@@ -9275,7 +9276,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C251" s="0" t="n">
         <v>100</v>
@@ -9304,7 +9305,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C252" s="0" t="n">
         <v>100</v>
@@ -9343,31 +9344,31 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C255" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D255" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E255" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D255" s="0" t="s">
+      <c r="F255" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E255" s="0" t="s">
+      <c r="G255" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F255" s="0" t="s">
+      <c r="H255" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G255" s="0" t="s">
+      <c r="I255" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H255" s="0" t="s">
+      <c r="J255" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="I255" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J255" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9401,12 +9402,12 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C259" s="0" t="n">
         <v>0</v>
@@ -9435,7 +9436,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C260" s="0" t="n">
         <v>0</v>
@@ -9464,7 +9465,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C261" s="0" t="n">
         <v>0</v>
@@ -9493,7 +9494,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C262" s="0" t="n">
         <v>0</v>
@@ -9522,7 +9523,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C263" s="0" t="n">
         <v>100</v>
@@ -9551,7 +9552,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C264" s="0" t="n">
         <v>20</v>
@@ -9580,7 +9581,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C265" s="0" t="n">
         <v>0</v>
@@ -9609,7 +9610,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C266" s="0" t="n">
         <v>0</v>
@@ -9638,7 +9639,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C267" s="0" t="n">
         <v>0</v>
@@ -9667,7 +9668,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C268" s="0" t="n">
         <v>0</v>
@@ -9696,7 +9697,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C269" s="0" t="n">
         <v>0</v>
@@ -9725,7 +9726,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C270" s="0" t="n">
         <v>100</v>
@@ -9754,7 +9755,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C271" s="0" t="n">
         <v>0</v>
@@ -9783,7 +9784,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C272" s="0" t="n">
         <v>0</v>
@@ -9812,7 +9813,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C273" s="0" t="n">
         <v>0</v>
@@ -9841,7 +9842,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C274" s="0" t="n">
         <v>0</v>
@@ -9870,7 +9871,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C275" s="0" t="n">
         <v>0</v>
@@ -9899,7 +9900,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C276" s="0" t="n">
         <v>0</v>
@@ -9928,7 +9929,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C277" s="0" t="n">
         <v>0</v>
@@ -9957,7 +9958,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C278" s="0" t="n">
         <v>100</v>
@@ -9986,7 +9987,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C279" s="0" t="n">
         <v>0</v>
@@ -10015,7 +10016,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C280" s="0" t="n">
         <v>100</v>
@@ -10045,7 +10046,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -10060,24 +10061,24 @@
   </sheetPr>
   <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="A6:A15 C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A56" activeCellId="1" sqref="A8 A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -10093,37 +10094,37 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="J3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10163,12 +10164,12 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>100</v>
@@ -10203,7 +10204,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>100</v>
@@ -10238,7 +10239,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>20</v>
@@ -10283,37 +10284,37 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="F12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="J12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="L12" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10353,12 +10354,12 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>100</v>
@@ -10393,7 +10394,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -10428,7 +10429,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>20</v>
@@ -10473,37 +10474,37 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="F21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="H21" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="0" t="s">
+      <c r="I21" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="J21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="L21" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10543,12 +10544,12 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>100</v>
@@ -10583,7 +10584,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -10618,7 +10619,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>20</v>
@@ -10663,37 +10664,37 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="F30" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="H30" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="0" t="s">
+      <c r="I30" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="J30" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="L30" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10733,12 +10734,12 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>100</v>
@@ -10773,7 +10774,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -10808,7 +10809,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>20</v>
@@ -10853,37 +10854,37 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="F39" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="H39" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" s="0" t="s">
+      <c r="I39" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="J39" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I39" s="0" t="s">
+      <c r="L39" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L39" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10923,12 +10924,12 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>100</v>
@@ -10963,7 +10964,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -10998,7 +10999,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>20</v>
@@ -11043,37 +11044,37 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="F48" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="H48" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48" s="0" t="s">
+      <c r="I48" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="J48" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K48" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I48" s="0" t="s">
+      <c r="L48" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J48" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="K48" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L48" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11113,12 +11114,12 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>100</v>
@@ -11153,7 +11154,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>100</v>
@@ -11188,7 +11189,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>20</v>
@@ -11228,42 +11229,42 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="F57" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="H57" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" s="0" t="s">
+      <c r="I57" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="J57" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K57" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I57" s="0" t="s">
+      <c r="L57" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L57" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11303,12 +11304,12 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>100</v>
@@ -11343,7 +11344,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>100</v>
@@ -11378,7 +11379,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>20</v>
@@ -11423,37 +11424,37 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C66" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="F66" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G66" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="H66" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F66" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G66" s="0" t="s">
+      <c r="I66" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H66" s="0" t="s">
+      <c r="J66" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K66" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I66" s="0" t="s">
+      <c r="L66" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L66" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11493,12 +11494,12 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>100</v>
@@ -11533,7 +11534,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>100</v>
@@ -11568,7 +11569,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>20</v>
@@ -11613,37 +11614,37 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C75" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="F75" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G75" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="H75" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G75" s="0" t="s">
+      <c r="I75" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H75" s="0" t="s">
+      <c r="J75" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K75" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I75" s="0" t="s">
+      <c r="L75" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L75" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11683,12 +11684,12 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>100</v>
@@ -11723,7 +11724,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>100</v>
@@ -11758,7 +11759,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>20</v>
@@ -11803,37 +11804,37 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C84" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="F84" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G84" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="H84" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F84" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G84" s="0" t="s">
+      <c r="I84" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H84" s="0" t="s">
+      <c r="J84" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K84" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I84" s="0" t="s">
+      <c r="L84" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J84" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="K84" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L84" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11873,12 +11874,12 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>100</v>
@@ -11913,7 +11914,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>0</v>
@@ -11948,7 +11949,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>20</v>
@@ -11984,7 +11985,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -11999,8 +12000,8 @@
   </sheetPr>
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A136" activeCellId="1" sqref="A6:A15 A136"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A92" activeCellId="1" sqref="A8 A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12012,11 +12013,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -12032,40 +12033,40 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12108,12 +12109,12 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -12151,7 +12152,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>20</v>
@@ -12189,7 +12190,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>20</v>
@@ -12227,7 +12228,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>60</v>
@@ -12265,7 +12266,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -12303,7 +12304,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>100</v>
@@ -12341,7 +12342,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>20</v>
@@ -12379,7 +12380,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>20</v>
@@ -12417,7 +12418,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>100</v>
@@ -12465,40 +12466,40 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="0" t="s">
+      <c r="M18" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12541,12 +12542,12 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>40</v>
@@ -12584,7 +12585,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -12622,7 +12623,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>20</v>
@@ -12660,7 +12661,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -12698,7 +12699,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>100</v>
@@ -12736,7 +12737,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>100</v>
@@ -12774,7 +12775,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>20</v>
@@ -12812,7 +12813,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>20</v>
@@ -12850,7 +12851,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>100</v>
@@ -12898,40 +12899,40 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E33" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" s="0" t="s">
+      <c r="M33" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M33" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12974,12 +12975,12 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>40</v>
@@ -13017,7 +13018,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -13055,7 +13056,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>20</v>
@@ -13093,7 +13094,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -13131,7 +13132,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -13169,7 +13170,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>100</v>
@@ -13207,7 +13208,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>20</v>
@@ -13245,7 +13246,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>20</v>
@@ -13283,7 +13284,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>100</v>
@@ -13331,40 +13332,40 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E48" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F48" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I48" s="0" t="s">
+      <c r="M48" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J48" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K48" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L48" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M48" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13407,12 +13408,12 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>40</v>
@@ -13450,7 +13451,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>0</v>
@@ -13488,7 +13489,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>20</v>
@@ -13526,7 +13527,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>0</v>
@@ -13564,7 +13565,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>0</v>
@@ -13602,7 +13603,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>100</v>
@@ -13640,7 +13641,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>20</v>
@@ -13678,7 +13679,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>20</v>
@@ -13716,7 +13717,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>100</v>
@@ -13764,40 +13765,40 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E63" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L63" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F63" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I63" s="0" t="s">
+      <c r="M63" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L63" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M63" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13840,12 +13841,12 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>40</v>
@@ -13883,7 +13884,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>0</v>
@@ -13921,7 +13922,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>20</v>
@@ -13959,7 +13960,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>0</v>
@@ -13997,7 +13998,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>0</v>
@@ -14035,7 +14036,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>100</v>
@@ -14073,7 +14074,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>20</v>
@@ -14111,7 +14112,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>20</v>
@@ -14149,7 +14150,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>100</v>
@@ -14197,40 +14198,40 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E78" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L78" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F78" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I78" s="0" t="s">
+      <c r="M78" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K78" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L78" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M78" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14273,12 +14274,12 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>40</v>
@@ -14316,7 +14317,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>20</v>
@@ -14354,7 +14355,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>20</v>
@@ -14392,7 +14393,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>60</v>
@@ -14430,7 +14431,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>0</v>
@@ -14468,7 +14469,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>100</v>
@@ -14506,7 +14507,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>20</v>
@@ -14544,7 +14545,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>20</v>
@@ -14582,7 +14583,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>100</v>
@@ -14625,45 +14626,45 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E93" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L93" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F93" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G93" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H93" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I93" s="0" t="s">
+      <c r="M93" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J93" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K93" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L93" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M93" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14706,12 +14707,12 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>40</v>
@@ -14749,7 +14750,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>20</v>
@@ -14787,7 +14788,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>20</v>
@@ -14825,7 +14826,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>60</v>
@@ -14863,7 +14864,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>0</v>
@@ -14901,7 +14902,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>100</v>
@@ -14939,7 +14940,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>20</v>
@@ -14977,7 +14978,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>20</v>
@@ -15015,7 +15016,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>100</v>
@@ -15063,40 +15064,40 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E108" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H108" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I108" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K108" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L108" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F108" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G108" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H108" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I108" s="0" t="s">
+      <c r="M108" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J108" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K108" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L108" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M108" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15139,12 +15140,12 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>40</v>
@@ -15182,7 +15183,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>20</v>
@@ -15220,7 +15221,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>20</v>
@@ -15258,7 +15259,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>60</v>
@@ -15296,7 +15297,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>0</v>
@@ -15334,7 +15335,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>100</v>
@@ -15372,7 +15373,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>20</v>
@@ -15410,7 +15411,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>20</v>
@@ -15448,7 +15449,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>100</v>
@@ -15496,40 +15497,40 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E123" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H123" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J123" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L123" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F123" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G123" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H123" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I123" s="0" t="s">
+      <c r="M123" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J123" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K123" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L123" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M123" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15572,12 +15573,12 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>40</v>
@@ -15615,7 +15616,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>20</v>
@@ -15653,7 +15654,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>20</v>
@@ -15691,7 +15692,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>60</v>
@@ -15729,7 +15730,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>0</v>
@@ -15767,7 +15768,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>100</v>
@@ -15805,7 +15806,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>20</v>
@@ -15843,7 +15844,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>20</v>
@@ -15881,7 +15882,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>100</v>
@@ -15929,40 +15930,40 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E138" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G138" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H138" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I138" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J138" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K138" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L138" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F138" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G138" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H138" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I138" s="0" t="s">
+      <c r="M138" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J138" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K138" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L138" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M138" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16005,12 +16006,12 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>40</v>
@@ -16048,7 +16049,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>0</v>
@@ -16086,7 +16087,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>20</v>
@@ -16124,7 +16125,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>0</v>
@@ -16162,7 +16163,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>0</v>
@@ -16200,7 +16201,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>100</v>
@@ -16238,7 +16239,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>20</v>
@@ -16276,7 +16277,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>20</v>
@@ -16314,7 +16315,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>100</v>
@@ -16353,7 +16354,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -16369,7 +16370,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:A15"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A8 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16455,7 +16456,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>100</v>
@@ -16560,37 +16561,37 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="E8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16631,7 +16632,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" state="visible" r:id="rId2"/>
@@ -2627,7 +2627,7 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2713,8 +2713,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2915,14 +2915,14 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -9539,16 +9539,16 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -10852,11 +10852,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -14531,16 +14531,16 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" state="visible" r:id="rId2"/>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">Payments</t>
   </si>
   <si>
-    <t xml:space="preserve">Collateral Management </t>
+    <t xml:space="preserve">Collateral Management</t>
   </si>
   <si>
     <t xml:space="preserve">Custody/Safekeeping</t>
@@ -209,16 +209,19 @@
     <t xml:space="preserve">G/L Proofs &amp; Substantiation</t>
   </si>
   <si>
-    <t xml:space="preserve">Client &amp; Counterparty</t>
+    <t xml:space="preserve">Client &amp; Counterparty RDM</t>
   </si>
   <si>
-    <t xml:space="preserve">Market Data</t>
+    <t xml:space="preserve">Market Data RDM</t>
   </si>
   <si>
     <t xml:space="preserve">Products &amp; Instruments</t>
   </si>
   <si>
     <t xml:space="preserve">Client &amp; Counterparty Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Data</t>
   </si>
   <si>
     <t xml:space="preserve">Products &amp; Instruments Data</t>
@@ -242,16 +245,13 @@
     <t xml:space="preserve">Funding &amp; Liquidity System</t>
   </si>
   <si>
-    <t xml:space="preserve">Some Managemnt</t>
+    <t xml:space="preserve">Financial Management</t>
   </si>
   <si>
     <t xml:space="preserve">Product Risk</t>
   </si>
   <si>
-    <t xml:space="preserve">Other Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales Management </t>
+    <t xml:space="preserve">Product Management</t>
   </si>
   <si>
     <t xml:space="preserve">subcategory</t>
@@ -2941,7 +2941,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3026,15 +3026,17 @@
   </sheetPr>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="31.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,42 +3194,42 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3235,7 +3237,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>27</v>
@@ -3258,13 +3260,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3481,7 +3483,7 @@
   <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A252" activeCellId="0" sqref="A252"/>
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10104,8 +10106,8 @@
   </sheetPr>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10141,7 +10143,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>100</v>
@@ -10211,7 +10213,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>20</v>
@@ -10261,7 +10263,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>100</v>
@@ -10331,7 +10333,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>20</v>
@@ -10381,7 +10383,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>100</v>
@@ -10451,7 +10453,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>20</v>
@@ -10501,7 +10503,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>100</v>
@@ -10571,7 +10573,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>20</v>
@@ -10621,7 +10623,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>100</v>
@@ -10691,7 +10693,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>20</v>
@@ -10741,7 +10743,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>100</v>
@@ -10811,7 +10813,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>20</v>
@@ -10861,7 +10863,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>100</v>
@@ -10931,7 +10933,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>20</v>
@@ -10981,7 +10983,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>100</v>
@@ -11051,7 +11053,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>20</v>
@@ -11101,7 +11103,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>100</v>
@@ -11171,7 +11173,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>20</v>
@@ -11221,7 +11223,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>100</v>
@@ -11291,7 +11293,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>20</v>
@@ -11413,7 +11415,7 @@
   <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A106" activeCellId="0" sqref="A106"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11487,7 +11489,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>20</v>
@@ -11525,7 +11527,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>20</v>
@@ -11563,7 +11565,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>60</v>
@@ -11601,7 +11603,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -11639,7 +11641,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>100</v>
@@ -11677,7 +11679,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>20</v>
@@ -11715,7 +11717,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>20</v>
@@ -11753,7 +11755,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>100</v>
@@ -11844,7 +11846,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -11882,7 +11884,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>20</v>
@@ -11920,7 +11922,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -11958,7 +11960,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>100</v>
@@ -11996,7 +11998,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>100</v>
@@ -12034,7 +12036,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>20</v>
@@ -12072,7 +12074,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>20</v>
@@ -12110,7 +12112,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>100</v>
@@ -12201,7 +12203,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -12239,7 +12241,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>20</v>
@@ -12277,7 +12279,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -12315,7 +12317,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -12353,7 +12355,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>100</v>
@@ -12391,7 +12393,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>20</v>
@@ -12429,7 +12431,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>20</v>
@@ -12467,7 +12469,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>100</v>
@@ -12558,7 +12560,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -12596,7 +12598,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>20</v>
@@ -12634,7 +12636,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -12672,7 +12674,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -12710,7 +12712,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>100</v>
@@ -12748,7 +12750,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>20</v>
@@ -12786,7 +12788,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>20</v>
@@ -12824,7 +12826,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>100</v>
@@ -12915,7 +12917,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0</v>
@@ -12953,7 +12955,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>20</v>
@@ -12991,7 +12993,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0</v>
@@ -13029,7 +13031,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0</v>
@@ -13067,7 +13069,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>100</v>
@@ -13105,7 +13107,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>20</v>
@@ -13143,7 +13145,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>20</v>
@@ -13181,7 +13183,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>100</v>
@@ -13272,7 +13274,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>20</v>
@@ -13310,7 +13312,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>20</v>
@@ -13348,7 +13350,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>60</v>
@@ -13386,7 +13388,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>0</v>
@@ -13424,7 +13426,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>100</v>
@@ -13462,7 +13464,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>20</v>
@@ -13500,7 +13502,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>20</v>
@@ -13538,7 +13540,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>100</v>
@@ -13629,7 +13631,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>20</v>
@@ -13667,7 +13669,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>20</v>
@@ -13705,7 +13707,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>60</v>
@@ -13743,7 +13745,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>0</v>
@@ -13781,7 +13783,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>100</v>
@@ -13819,7 +13821,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>20</v>
@@ -13857,7 +13859,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>20</v>
@@ -13895,7 +13897,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>100</v>
@@ -13986,7 +13988,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>20</v>
@@ -14024,7 +14026,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>20</v>
@@ -14062,7 +14064,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>60</v>
@@ -14100,7 +14102,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>0</v>
@@ -14138,7 +14140,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>100</v>
@@ -14176,7 +14178,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>20</v>
@@ -14214,7 +14216,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>20</v>
@@ -14252,7 +14254,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>100</v>
@@ -14343,7 +14345,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>20</v>
@@ -14381,7 +14383,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>20</v>
@@ -14419,7 +14421,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>60</v>
@@ -14457,7 +14459,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>0</v>
@@ -14495,7 +14497,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>100</v>
@@ -14533,7 +14535,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>20</v>
@@ -14571,7 +14573,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>20</v>
@@ -14609,7 +14611,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>100</v>
@@ -14700,7 +14702,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>0</v>
@@ -14738,7 +14740,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>20</v>
@@ -14776,7 +14778,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>0</v>
@@ -14814,7 +14816,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>0</v>
@@ -14852,7 +14854,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>100</v>
@@ -14890,7 +14892,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>20</v>
@@ -14928,7 +14930,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>20</v>
@@ -14966,7 +14968,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>100</v>
